--- a/S3E3.xlsx
+++ b/S3E3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40e3764c18e6e0ce/Documents/GitHub/estrutura-de-dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzok\OneDrive\Documents\GitHub\estrutura-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC104829B1D8616A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C802BA54-56A5-452B-9F58-EACE61E70C82}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFC4D1A-F8A5-4A37-ACE3-71B1A6D05EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2115" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
